--- a/config_1.5/fish3d_config.xlsx
+++ b/config_1.5/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="428">
   <si>
     <t>line|行号</t>
   </si>
@@ -2503,10 +2503,6 @@
   </si>
   <si>
     <t>18,19,20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3195,9 +3191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8881,10 +8877,10 @@
         <v>424</v>
       </c>
       <c r="F62" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="G62" s="64" t="s">
         <v>427</v>
-      </c>
-      <c r="G62" s="64" t="s">
-        <v>428</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>
